--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/99/word_level_predictions_99.xlsx
@@ -2894,208 +2894,208 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>properly</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3721,59 +3721,59 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4298,364 +4298,364 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>8</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/99/word_level_predictions_99.xlsx
@@ -2894,208 +2894,208 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3721,59 +3721,59 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_B</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4298,364 +4298,364 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>5</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" t="n">
         <v>3</v>
       </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>5</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" t="n">
         <v>4</v>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>5</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>5</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>5</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>6</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>5</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>7</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>5</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>8</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>5</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>9</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
